--- a/xlsx/country_comparison/solidarity_support_dem_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_dem_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tertiary diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural urbanicity</t>
   </si>
   <si>
     <t xml:space="preserve">Cities urbanicity</t>
@@ -470,13 +467,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.80964450411054</v>
@@ -503,27 +497,24 @@
         <v>0.810966729934618</v>
       </c>
       <c r="J2" t="n">
-        <v>0.798196988182158</v>
+        <v>0.798617011369489</v>
       </c>
       <c r="K2" t="n">
-        <v>0.798617011369489</v>
+        <v>0.809469039087831</v>
       </c>
       <c r="L2" t="n">
-        <v>0.809469039087831</v>
+        <v>0.811566055019592</v>
       </c>
       <c r="M2" t="n">
-        <v>0.811566055019592</v>
+        <v>0.808784840619055</v>
       </c>
       <c r="N2" t="n">
-        <v>0.808784840619055</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.792875561475827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.793302229139668</v>
@@ -550,27 +541,24 @@
         <v>0.814924933429552</v>
       </c>
       <c r="J3" t="n">
-        <v>0.742286901382223</v>
+        <v>0.789017396390974</v>
       </c>
       <c r="K3" t="n">
-        <v>0.789017396390974</v>
+        <v>0.796993743939357</v>
       </c>
       <c r="L3" t="n">
-        <v>0.796993743939357</v>
+        <v>0.790486892820675</v>
       </c>
       <c r="M3" t="n">
-        <v>0.790486892820675</v>
+        <v>0.792846415136565</v>
       </c>
       <c r="N3" t="n">
-        <v>0.792846415136565</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.788661114062123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.748783561969176</v>
@@ -597,27 +585,24 @@
         <v>0.75967388489855</v>
       </c>
       <c r="J4" t="n">
-        <v>0.686322529153042</v>
+        <v>0.730199809968706</v>
       </c>
       <c r="K4" t="n">
-        <v>0.730199809968706</v>
+        <v>0.771126971070538</v>
       </c>
       <c r="L4" t="n">
-        <v>0.771126971070538</v>
+        <v>0.74925452940064</v>
       </c>
       <c r="M4" t="n">
-        <v>0.74925452940064</v>
+        <v>0.737544794639165</v>
       </c>
       <c r="N4" t="n">
-        <v>0.737544794639165</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.733352486332278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.700580371227263</v>
@@ -644,27 +629,24 @@
         <v>0.709387903841538</v>
       </c>
       <c r="J5" t="n">
-        <v>0.654204125299717</v>
+        <v>0.697726658983775</v>
       </c>
       <c r="K5" t="n">
-        <v>0.697726658983775</v>
+        <v>0.745294773979223</v>
       </c>
       <c r="L5" t="n">
-        <v>0.745294773979223</v>
+        <v>0.69246567667053</v>
       </c>
       <c r="M5" t="n">
-        <v>0.69246567667053</v>
+        <v>0.683822564186105</v>
       </c>
       <c r="N5" t="n">
-        <v>0.683822564186105</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.672896544022875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.699085587371477</v>
@@ -691,27 +673,24 @@
         <v>0.699824033055807</v>
       </c>
       <c r="J6" t="n">
-        <v>0.646251201130516</v>
+        <v>0.680634342955419</v>
       </c>
       <c r="K6" t="n">
-        <v>0.680634342955419</v>
+        <v>0.720837123097674</v>
       </c>
       <c r="L6" t="n">
-        <v>0.720837123097674</v>
+        <v>0.698760318999419</v>
       </c>
       <c r="M6" t="n">
-        <v>0.698760318999419</v>
+        <v>0.688695808313923</v>
       </c>
       <c r="N6" t="n">
-        <v>0.688695808313923</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.690182786824578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.696623799252374</v>
@@ -738,27 +717,24 @@
         <v>0.705715535481082</v>
       </c>
       <c r="J7" t="n">
-        <v>0.649267966819973</v>
+        <v>0.69682497830265</v>
       </c>
       <c r="K7" t="n">
-        <v>0.69682497830265</v>
+        <v>0.76045232372898</v>
       </c>
       <c r="L7" t="n">
-        <v>0.76045232372898</v>
+        <v>0.69738510584219</v>
       </c>
       <c r="M7" t="n">
-        <v>0.69738510584219</v>
+        <v>0.664278056752126</v>
       </c>
       <c r="N7" t="n">
-        <v>0.664278056752126</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.69044587959287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.694896977800978</v>
@@ -785,27 +761,24 @@
         <v>0.713668955484599</v>
       </c>
       <c r="J8" t="n">
-        <v>0.698571303661933</v>
+        <v>0.709973887440627</v>
       </c>
       <c r="K8" t="n">
-        <v>0.709973887440627</v>
+        <v>0.711325382125979</v>
       </c>
       <c r="L8" t="n">
-        <v>0.711325382125979</v>
+        <v>0.675205213515901</v>
       </c>
       <c r="M8" t="n">
-        <v>0.675205213515901</v>
+        <v>0.69665005380934</v>
       </c>
       <c r="N8" t="n">
-        <v>0.69665005380934</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.690008965359971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.683123223291107</v>
@@ -832,27 +805,24 @@
         <v>0.684388951314918</v>
       </c>
       <c r="J9" t="n">
-        <v>0.596000168988199</v>
+        <v>0.654811944919706</v>
       </c>
       <c r="K9" t="n">
-        <v>0.654811944919706</v>
+        <v>0.733190192654724</v>
       </c>
       <c r="L9" t="n">
-        <v>0.733190192654724</v>
+        <v>0.680702767215003</v>
       </c>
       <c r="M9" t="n">
-        <v>0.680702767215003</v>
+        <v>0.660214722433062</v>
       </c>
       <c r="N9" t="n">
-        <v>0.660214722433062</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.675764905220272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.682371653787096</v>
@@ -879,27 +849,24 @@
         <v>0.710803816190872</v>
       </c>
       <c r="J10" t="n">
-        <v>0.68848843559922</v>
+        <v>0.704452034341453</v>
       </c>
       <c r="K10" t="n">
-        <v>0.704452034341453</v>
+        <v>0.656407327953169</v>
       </c>
       <c r="L10" t="n">
-        <v>0.656407327953169</v>
+        <v>0.681225570839814</v>
       </c>
       <c r="M10" t="n">
-        <v>0.681225570839814</v>
+        <v>0.694913738219921</v>
       </c>
       <c r="N10" t="n">
-        <v>0.694913738219921</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.678746092297992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.526444294027161</v>
@@ -926,21 +893,18 @@
         <v>0.540105995839692</v>
       </c>
       <c r="J11" t="n">
-        <v>0.502017404359052</v>
+        <v>0.528630714308588</v>
       </c>
       <c r="K11" t="n">
-        <v>0.528630714308588</v>
+        <v>0.574402917272089</v>
       </c>
       <c r="L11" t="n">
-        <v>0.574402917272089</v>
+        <v>0.52242283674544</v>
       </c>
       <c r="M11" t="n">
-        <v>0.52242283674544</v>
+        <v>0.505592398408839</v>
       </c>
       <c r="N11" t="n">
-        <v>0.505592398408839</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.522696336801482</v>
       </c>
     </row>
